--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>4859a960-61ca-4a81-a7f8-92a4e1f31695</t>
+    <t>96343e40-b78e-4335-8520-00cb66e21a4c</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>96343e40-b78e-4335-8520-00cb66e21a4c</t>
+    <t>c898ea6a-e559-4bf1-af46-a6ba5ca4c423</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>c898ea6a-e559-4bf1-af46-a6ba5ca4c423</t>
+    <t>21c6bd0e-74ea-44e7-8370-b15f2085a6b7</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>21c6bd0e-74ea-44e7-8370-b15f2085a6b7</t>
+    <t>0cbe677d-b2a1-48d3-b3b9-6302dc25a235</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>0cbe677d-b2a1-48d3-b3b9-6302dc25a235</t>
+    <t>6cf4437b-974b-4cf9-93f9-bd8e58fc0520</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>

--- a/storage/app/xlsx/seed_cidades_rs.xlsx
+++ b/storage/app/xlsx/seed_cidades_rs.xlsx
@@ -23,7 +23,7 @@
     <t>ACEGUAENSE</t>
   </si>
   <si>
-    <t>6cf4437b-974b-4cf9-93f9-bd8e58fc0520</t>
+    <t>b7c7116b-3081-4751-a215-98fc123c23f2</t>
   </si>
   <si>
     <t>ÁGUA SANTA</t>
